--- a/doc/prd/youwallet用户故事地图.xlsx
+++ b/doc/prd/youwallet用户故事地图.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiwei.liu/Documents/LL/doc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiwei.liu/Documents/LL/wallet/doc/prd/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9030E096-2177-2D4A-BFA6-1C5AC5BBD53F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{198847B4-488C-FD49-8ED2-79752CF935CF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{C487BEB6-A7E3-854C-926C-D346AE1440C2}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16480" activeTab="1" xr2:uid="{C487BEB6-A7E3-854C-926C-D346AE1440C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="67">
   <si>
     <t>创建身份</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -322,6 +322,10 @@
 AC:
 根据用户输入卖出数量计算出该次兑换BaseToken的交易额； 
 需要显示用户当前账户Token余额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -509,6 +513,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -526,9 +533,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -860,10 +864,10 @@
       <c r="A1" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="10"/>
+      <c r="C1" s="11"/>
       <c r="D1" s="1" t="s">
         <v>13</v>
       </c>
@@ -940,8 +944,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C369075-36BF-EB49-8F1B-2E707ADE642B}">
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -959,30 +963,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="17" customHeight="1">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>50</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="12" t="s">
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12" t="s">
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
     </row>
     <row r="2" spans="1:14" ht="17">
-      <c r="A2" s="15"/>
+      <c r="A2" s="16"/>
       <c r="B2" s="5" t="s">
         <v>19</v>
       </c>
@@ -1015,10 +1019,10 @@
       </c>
     </row>
     <row r="3" spans="1:14" s="3" customFormat="1" ht="187">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="14" t="s">
         <v>49</v>
       </c>
       <c r="C3" s="7" t="s">
@@ -1050,10 +1054,10 @@
       </c>
     </row>
     <row r="4" spans="1:14" s="3" customFormat="1" ht="102">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="14"/>
+      <c r="B4" s="15"/>
       <c r="C4" s="9"/>
       <c r="D4" s="7" t="s">
         <v>55</v>
@@ -1077,8 +1081,8 @@
       </c>
     </row>
     <row r="5" spans="1:14" s="3" customFormat="1" ht="102">
-      <c r="A5" s="16"/>
-      <c r="B5" s="14"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="15"/>
       <c r="C5" s="9"/>
       <c r="D5" s="7" t="s">
         <v>56</v>
@@ -1100,8 +1104,8 @@
       </c>
     </row>
     <row r="6" spans="1:14" s="3" customFormat="1" ht="119">
-      <c r="A6" s="16"/>
-      <c r="B6" s="14"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="15"/>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
       <c r="E6" s="7" t="s">
@@ -1117,9 +1121,11 @@
       <c r="K6" s="8"/>
     </row>
     <row r="7" spans="1:14" s="3" customFormat="1" ht="153">
-      <c r="A7" s="16"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="9"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="9" t="s">
+        <v>66</v>
+      </c>
       <c r="D7" s="9"/>
       <c r="E7" s="7" t="s">
         <v>60</v>

--- a/doc/prd/youwallet用户故事地图.xlsx
+++ b/doc/prd/youwallet用户故事地图.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiwei.liu/Documents/LL/doc/prd/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiwei.liu/Documents/LL/wallet/doc/prd/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E50A514-9FA5-924F-8FB3-036935C5B4FC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C387D45-A513-7D4D-A9F4-73C3B9816C93}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="820" yWindow="460" windowWidth="27980" windowHeight="16480" xr2:uid="{C487BEB6-A7E3-854C-926C-D346AE1440C2}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
   <si>
     <t>兑换</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -265,6 +265,10 @@
   </si>
   <si>
     <t xml:space="preserve">  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI设计</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -342,12 +346,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -355,6 +353,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -443,32 +447,32 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -787,7 +791,7 @@
   <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -795,40 +799,40 @@
     <col min="1" max="1" width="17.33203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="34" style="1" customWidth="1"/>
     <col min="4" max="4" width="28.83203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.1640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="27.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.5" style="1" customWidth="1"/>
     <col min="7" max="7" width="15.33203125" customWidth="1"/>
     <col min="8" max="8" width="14.1640625" customWidth="1"/>
-    <col min="9" max="9" width="18.33203125" customWidth="1"/>
-    <col min="10" max="10" width="19.83203125" customWidth="1"/>
+    <col min="9" max="9" width="27" customWidth="1"/>
+    <col min="10" max="10" width="25.6640625" customWidth="1"/>
     <col min="11" max="11" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="17" customHeight="1">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="12" t="s">
         <v>35</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="12" t="s">
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12" t="s">
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
     </row>
     <row r="2" spans="1:14" ht="17">
-      <c r="A2" s="15"/>
+      <c r="A2" s="12"/>
       <c r="B2" s="5" t="s">
         <v>5</v>
       </c>
@@ -860,126 +864,128 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="3" customFormat="1" ht="187">
-      <c r="A3" s="10" t="s">
+    <row r="3" spans="1:14" s="3" customFormat="1" ht="153">
+      <c r="A3" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="13" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:14" s="3" customFormat="1" ht="102">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="7" t="s">
+      <c r="B4" s="15"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="7" t="s">
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="13" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:14" s="3" customFormat="1" ht="102">
-      <c r="A5" s="10"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="7" t="s">
+      <c r="A5" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="15"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="7" t="s">
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="13" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:14" s="3" customFormat="1" ht="119">
-      <c r="A6" s="10"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="7" t="s">
+    <row r="6" spans="1:14" s="3" customFormat="1" ht="85">
+      <c r="A6" s="9"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-    </row>
-    <row r="7" spans="1:14" s="3" customFormat="1" ht="153">
-      <c r="A7" s="10"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="9" t="s">
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+    </row>
+    <row r="7" spans="1:14" s="3" customFormat="1" ht="102">
+      <c r="A7" s="9"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="7" t="s">
+      <c r="D7" s="8"/>
+      <c r="E7" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
     </row>
     <row r="8" spans="1:14">
       <c r="N8" s="1"/>
